--- a/jupyter_notebooks/file/input/bus_failure_example/network.xlsx
+++ b/jupyter_notebooks/file/input/bus_failure_example/network.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ResiliencyTool\jupyter_notebooks\file\input\bus_failure_example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/mn6461_engie_com/Documents/Dokumente/GitHub/reXplan-repo/jupyter_notebooks/file/input/bus_failure_example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A443026-744A-4523-8534-B151ED9A845F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9A443026-744A-4523-8534-B151ED9A845F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E32DBBE-8134-41FE-A0E1-F1EC2E1FD780}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
+    <workbookView xWindow="-25320" yWindow="-8805" windowWidth="25440" windowHeight="15270" firstSheet="1" activeTab="3" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
     <sheet name="network" sheetId="5" r:id="rId2"/>
     <sheet name="nodes" sheetId="1" r:id="rId3"/>
-    <sheet name="loads" sheetId="8" r:id="rId4"/>
-    <sheet name="generators" sheetId="2" r:id="rId5"/>
-    <sheet name="external_gen" sheetId="9" r:id="rId6"/>
-    <sheet name="tr_type" sheetId="6" r:id="rId7"/>
-    <sheet name="transformers" sheetId="3" r:id="rId8"/>
-    <sheet name="lines" sheetId="4" r:id="rId9"/>
-    <sheet name="switches" sheetId="14" r:id="rId10"/>
-    <sheet name="ln_type" sheetId="7" r:id="rId11"/>
-    <sheet name="cost" sheetId="10" r:id="rId12"/>
-    <sheet name="profiles" sheetId="11" r:id="rId13"/>
-    <sheet name="crews" sheetId="13" r:id="rId14"/>
+    <sheet name="static_generators" sheetId="15" r:id="rId4"/>
+    <sheet name="loads" sheetId="8" r:id="rId5"/>
+    <sheet name="generators" sheetId="2" r:id="rId6"/>
+    <sheet name="external_gen" sheetId="9" r:id="rId7"/>
+    <sheet name="tr_type" sheetId="6" r:id="rId8"/>
+    <sheet name="transformers" sheetId="3" r:id="rId9"/>
+    <sheet name="lines" sheetId="4" r:id="rId10"/>
+    <sheet name="switches" sheetId="14" r:id="rId11"/>
+    <sheet name="ln_type" sheetId="7" r:id="rId12"/>
+    <sheet name="cost" sheetId="10" r:id="rId13"/>
+    <sheet name="profiles" sheetId="11" r:id="rId14"/>
+    <sheet name="crews" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -660,8 +661,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -945,15 +946,15 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>143</v>
       </c>
@@ -964,7 +965,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -979,7 +980,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -990,7 +991,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>44562.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -1019,6 +1020,687 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2B7A3-5BF0-4668-9FF0-C3329253032F}">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4">
+        <v>20.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>160</v>
+      </c>
+      <c r="S4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>160</v>
+      </c>
+      <c r="S5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <v>21.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>160</v>
+      </c>
+      <c r="S6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>160</v>
+      </c>
+      <c r="S7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8">
+        <v>22.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>160</v>
+      </c>
+      <c r="S8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>160</v>
+      </c>
+      <c r="S9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <v>23.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12">
+        <v>24.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>160</v>
+      </c>
+      <c r="S12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>160</v>
+      </c>
+      <c r="S13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14">
+        <v>25.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14">
+        <v>100</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s">
+        <v>160</v>
+      </c>
+      <c r="S14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>160</v>
+      </c>
+      <c r="S15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16">
+        <v>26.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16">
+        <v>100</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17">
+        <v>100</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F048EE5-6CF5-4D91-BE31-E59CF33F6687}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -1026,15 +1708,15 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1063,50 +1745,50 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
@@ -1115,7 +1797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B643028-F04F-4526-8B5B-4E99E7FCEC09}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1123,21 +1805,21 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1197,7 +1879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03625BB4-D62C-4FF6-AAD9-1E9790CBA541}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -1205,19 +1887,19 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1925,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -1299,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -1313,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -1327,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -1341,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +2037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1369,7 +2051,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1383,7 +2065,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -1397,7 +2079,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -1411,7 +2093,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -1425,7 +2107,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -1439,7 +2121,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -1459,7 +2141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF69C053-E8BE-41F5-B9A4-E34E9036274A}">
   <dimension ref="A1:U50"/>
   <sheetViews>
@@ -1467,14 +2149,14 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="12" customWidth="1"/>
-    <col min="10" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -1503,7 +2185,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -1532,7 +2214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>DATE(2022,1,1)+TIME(0,0,0)</f>
         <v>44562</v>
@@ -1601,7 +2283,7 @@
         <v>4.27432788186315</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f>A3+TIME(1,0,0)</f>
         <v>44562.041666666664</v>
@@ -1667,7 +2349,7 @@
         <v>5.6211919330659503</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A50" si="9">A4+TIME(1,0,0)</f>
         <v>44562.083333333328</v>
@@ -1733,7 +2415,7 @@
         <v>1.82564940090546</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="9"/>
         <v>44562.124999999993</v>
@@ -1799,7 +2481,7 @@
         <v>3.1417148327448299</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="9"/>
         <v>44562.166666666657</v>
@@ -1865,7 +2547,7 @@
         <v>2.44040365859968</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="9"/>
         <v>44562.208333333321</v>
@@ -1931,7 +2613,7 @@
         <v>1.68806951706772</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="9"/>
         <v>44562.249999999985</v>
@@ -1997,7 +2679,7 @@
         <v>5.7615926339802899</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="9"/>
         <v>44562.29166666665</v>
@@ -2063,7 +2745,7 @@
         <v>4.4746755565582301</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="9"/>
         <v>44562.333333333314</v>
@@ -2129,7 +2811,7 @@
         <v>0.99233826848758999</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="9"/>
         <v>44562.374999999978</v>
@@ -2195,7 +2877,7 @@
         <v>1.4504413873470099</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="9"/>
         <v>44562.416666666642</v>
@@ -2261,7 +2943,7 @@
         <v>3.4424487899564999</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="9"/>
         <v>44562.458333333307</v>
@@ -2327,7 +3009,7 @@
         <v>2.8984195901566401</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="9"/>
         <v>44562.499999999971</v>
@@ -2393,7 +3075,7 @@
         <v>0.27373317868428698</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="9"/>
         <v>44562.541666666635</v>
@@ -2459,7 +3141,7 @@
         <v>2.2835876161010198</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="9"/>
         <v>44562.583333333299</v>
@@ -2525,7 +3207,7 @@
         <v>3.2042372835921999</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="9"/>
         <v>44562.624999999964</v>
@@ -2591,7 +3273,7 @@
         <v>4.3549335670475404</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="9"/>
         <v>44562.666666666628</v>
@@ -2657,7 +3339,7 @@
         <v>1.4410553784787401</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="9"/>
         <v>44562.708333333292</v>
@@ -2723,7 +3405,7 @@
         <v>1.06966709596261</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="9"/>
         <v>44562.749999999956</v>
@@ -2789,7 +3471,7 @@
         <v>2.1763329976830499</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="9"/>
         <v>44562.791666666621</v>
@@ -2855,7 +3537,7 @@
         <v>1.6300007973402</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="9"/>
         <v>44562.833333333285</v>
@@ -2921,7 +3603,7 @@
         <v>5.39135925399553</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="9"/>
         <v>44562.874999999949</v>
@@ -2987,7 +3669,7 @@
         <v>2.6246176606670999</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="9"/>
         <v>44562.916666666613</v>
@@ -3053,7 +3735,7 @@
         <v>1.7617742571331001</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="9"/>
         <v>44562.958333333278</v>
@@ -3119,7 +3801,7 @@
         <v>3.4528973487669998</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="9"/>
         <v>44562.999999999942</v>
@@ -3185,7 +3867,7 @@
         <v>4.2602474943845499</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="9"/>
         <v>44563.041666666606</v>
@@ -3251,7 +3933,7 @@
         <v>5.8161839179126202</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="9"/>
         <v>44563.08333333327</v>
@@ -3317,7 +3999,7 @@
         <v>1.46193657438067</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="9"/>
         <v>44563.124999999935</v>
@@ -3383,7 +4065,7 @@
         <v>1.6591177962361401</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="9"/>
         <v>44563.166666666599</v>
@@ -3449,7 +4131,7 @@
         <v>5.4597621212607299</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="9"/>
         <v>44563.208333333263</v>
@@ -3515,7 +4197,7 @@
         <v>1.25181920815158</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="9"/>
         <v>44563.249999999927</v>
@@ -3581,7 +4263,7 @@
         <v>3.3509127315398102</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="9"/>
         <v>44563.291666666591</v>
@@ -3647,7 +4329,7 @@
         <v>5.3115677444649299</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="9"/>
         <v>44563.333333333256</v>
@@ -3713,7 +4395,7 @@
         <v>5.4721211104801402</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="9"/>
         <v>44563.37499999992</v>
@@ -3779,7 +4461,7 @@
         <v>4.17004847290369</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="9"/>
         <v>44563.416666666584</v>
@@ -3845,7 +4527,7 @@
         <v>5.7350102271752199</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="9"/>
         <v>44563.458333333248</v>
@@ -3911,7 +4593,7 @@
         <v>3.0532018578787898</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="9"/>
         <v>44563.499999999913</v>
@@ -3977,7 +4659,7 @@
         <v>4.5127529817461802</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="9"/>
         <v>44563.541666666577</v>
@@ -4043,7 +4725,7 @@
         <v>1.81882568283527</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="9"/>
         <v>44563.583333333241</v>
@@ -4109,7 +4791,7 @@
         <v>4.1670179471692004</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="9"/>
         <v>44563.624999999905</v>
@@ -4175,7 +4857,7 @@
         <v>5.0145941909878102</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="9"/>
         <v>44563.66666666657</v>
@@ -4241,7 +4923,7 @@
         <v>4.6203567464908799</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="9"/>
         <v>44563.708333333234</v>
@@ -4307,7 +4989,7 @@
         <v>3.1860373031700502</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="9"/>
         <v>44563.749999999898</v>
@@ -4373,7 +5055,7 @@
         <v>1.4542112247108301</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="9"/>
         <v>44563.791666666562</v>
@@ -4439,7 +5121,7 @@
         <v>0.58642957599119605</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f t="shared" si="9"/>
         <v>44563.833333333227</v>
@@ -4505,7 +5187,7 @@
         <v>2.0991375142243198</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="9"/>
         <v>44563.874999999891</v>
@@ -4571,7 +5253,7 @@
         <v>5.4879410997586398</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="9"/>
         <v>44563.916666666555</v>
@@ -4637,7 +5319,7 @@
         <v>5.0588261933592902</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="9"/>
         <v>44563.958333333219</v>
@@ -4710,7 +5392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA625533-3B9A-44F8-8593-9BC4C933B1AA}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -4718,27 +5400,27 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -4757,9 +5439,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4770,7 +5452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4787,23 +5469,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4844,7 +5526,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4873,7 +5555,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4902,7 +5584,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4925,7 +5607,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4954,7 +5636,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -4983,7 +5665,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -5006,7 +5688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -5029,7 +5711,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -5052,7 +5734,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -5075,7 +5757,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -5098,7 +5780,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -5121,7 +5803,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -5144,7 +5826,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -5167,7 +5849,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -5190,7 +5872,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -5213,7 +5895,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -5236,7 +5918,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -5259,7 +5941,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -5290,6 +5972,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDA9007-36CB-4167-A0E7-B45E06E2AD54}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C68F50D-BD38-47D8-9610-A2EF7C397A58}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
@@ -5297,27 +5991,27 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5370,7 +6064,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5396,7 +6090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5422,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5448,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -5474,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -5500,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -5526,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -5552,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -5583,7 +6277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB5B7B5-BF13-4654-A134-6B30DC3D029F}">
   <dimension ref="A1:AA8"/>
   <sheetViews>
@@ -5591,36 +6285,36 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5703,7 +6397,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5736,7 +6430,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5769,7 +6463,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -5796,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -5829,7 +6523,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -5862,7 +6556,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -5889,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="M8" s="2"/>
       <c r="V8" s="2"/>
     </row>
@@ -5898,7 +6592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06392EB3-C4FB-4DF3-BD7E-3D0934814FDF}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -5906,28 +6600,28 @@
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5980,7 +6674,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6008,7 +6702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD17E09-C6E9-4EE3-B588-F4BAB32A1513}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -6016,27 +6710,27 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6086,7 +6780,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -6141,7 +6835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2EA6-5FEC-471F-BC99-9A1BBFAA5478}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -6149,22 +6843,22 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6205,7 +6899,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6230,687 +6924,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2B7A3-5BF0-4668-9FF0-C3329253032F}">
-  <dimension ref="A1:S17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R1" t="s">
-        <v>159</v>
-      </c>
-      <c r="S1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>161</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>160</v>
-      </c>
-      <c r="S3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4">
-        <v>20.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>3</v>
-      </c>
-      <c r="R4" t="s">
-        <v>160</v>
-      </c>
-      <c r="S4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>161</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O5">
-        <v>100</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5" t="s">
-        <v>160</v>
-      </c>
-      <c r="S5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6">
-        <v>21.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6" t="s">
-        <v>160</v>
-      </c>
-      <c r="S6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7">
-        <v>100</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
-        <v>160</v>
-      </c>
-      <c r="S7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8">
-        <v>22.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8">
-        <v>100</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8" t="s">
-        <v>160</v>
-      </c>
-      <c r="S8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O9">
-        <v>100</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
-        <v>160</v>
-      </c>
-      <c r="S9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10">
-        <v>23.5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10">
-        <v>100</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10" t="s">
-        <v>160</v>
-      </c>
-      <c r="S10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11">
-        <v>100</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12">
-        <v>24.5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O12">
-        <v>100</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
-      </c>
-      <c r="R12" t="s">
-        <v>160</v>
-      </c>
-      <c r="S12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" t="s">
-        <v>161</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O13">
-        <v>100</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>3</v>
-      </c>
-      <c r="R13" t="s">
-        <v>160</v>
-      </c>
-      <c r="S13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14">
-        <v>25.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" t="s">
-        <v>162</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O14">
-        <v>100</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-      <c r="R14" t="s">
-        <v>160</v>
-      </c>
-      <c r="S14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" t="s">
-        <v>162</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O15">
-        <v>100</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
-        <v>160</v>
-      </c>
-      <c r="S15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16">
-        <v>26.5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16">
-        <v>100</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O17">
-        <v>100</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-      <c r="R17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
